--- a/calc/Zellauswahl_Master.xlsx
+++ b/calc/Zellauswahl_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privat\Git\Projektarbeit-Hochvolt-Elektrik-Komponenten-FSE-Fahrzeug\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE14A48-6348-48D6-A80C-83BD662F28E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12D07FA-079E-4D2E-A37F-FDF3157D5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarking" sheetId="3" r:id="rId1"/>
@@ -649,21 +649,12 @@
     <t>m [g]</t>
   </si>
   <si>
-    <t>Desired Avg P</t>
-  </si>
-  <si>
     <t>m_B [kg]</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>Desired Wh</t>
-  </si>
-  <si>
-    <t>Desired max P</t>
-  </si>
-  <si>
     <t>n_max</t>
   </si>
   <si>
@@ -863,6 +854,15 @@
   </si>
   <si>
     <t>Wieviele Zellen können an einen BMS Chip angeschlossen werden. Manchmal gegehen auch 14 oder gar 16. Dementsprechend hier die 3 lieblingsconfigs angeben</t>
+  </si>
+  <si>
+    <t>min Avg P</t>
+  </si>
+  <si>
+    <t>min Wh</t>
+  </si>
+  <si>
+    <t>min max P</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1511,6 +1511,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1562,10 +1564,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1589,11 +1591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="3" builtinId="26"/>
@@ -3817,6 +3814,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6381,11 +6382,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.2769</cdr:x>
-      <cdr:y>0.12755</cdr:y>
+      <cdr:y>0.13029</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.46367</cdr:x>
-      <cdr:y>0.5583</cdr:y>
+      <cdr:y>0.61391</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6400,8 +6401,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2077266" y="462341"/>
-          <a:ext cx="1401086" cy="1561381"/>
+          <a:off x="2071988" y="468653"/>
+          <a:ext cx="1397563" cy="1739590"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7244,27 +7245,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="121" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="125"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
@@ -7273,70 +7274,70 @@
       <c r="C2" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="126" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="126" t="s">
         <v>147</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="G2" s="127" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+        <v>206</v>
+      </c>
+      <c r="G2" s="129" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
       <c r="L2" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>143</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="39"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125" t="s">
-        <v>217</v>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127" t="s">
+        <v>214</v>
       </c>
       <c r="G3" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" t="s">
         <v>236</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" t="s">
-        <v>239</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="39"/>
       <c r="R3" s="40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7344,40 +7345,40 @@
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="54"/>
-      <c r="F4" s="126"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P4" s="44" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -8337,7 +8338,7 @@
     <row r="21" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G21" s="64">
         <f t="shared" ref="G21:H21" si="6">SUM(G5:G20)/COUNT(G5:G20)</f>
@@ -8386,7 +8387,7 @@
     </row>
     <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C22" s="41">
         <v>2021</v>
@@ -8573,8 +8574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E8032F-0997-4262-8E52-ED8039B70175}">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8589,29 +8590,29 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="131"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="133"/>
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
-        <v>247</v>
+      <c r="A2" s="135" t="s">
+        <v>244</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>197</v>
@@ -8672,9 +8673,9 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
+      <c r="A3" s="136"/>
       <c r="B3" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C3" s="98">
         <v>3.6</v>
@@ -8732,9 +8733,9 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="134"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="98">
         <v>4.2</v>
@@ -8792,7 +8793,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="134"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="39" t="s">
         <v>199</v>
       </c>
@@ -8852,7 +8853,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="134"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="39" t="s">
         <v>200</v>
       </c>
@@ -8912,7 +8913,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="134"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="39" t="s">
         <v>201</v>
       </c>
@@ -8975,7 +8976,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="135"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="44" t="s">
         <v>202</v>
       </c>
@@ -9072,11 +9073,11 @@
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133" t="s">
-        <v>248</v>
+      <c r="A11" s="135" t="s">
+        <v>245</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="C11" s="91">
         <v>60000</v>
@@ -9095,9 +9096,9 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="134"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="66">
         <f t="shared" ref="C12:T12" si="0">$C11/(C6*C4)</f>
@@ -9174,9 +9175,9 @@
       <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="134"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="67">
         <f t="shared" ref="C13:T13" si="2">C12*C8/1000</f>
@@ -9252,9 +9253,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="134"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="72" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C14" s="92">
         <v>570</v>
@@ -9278,9 +9279,9 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="134"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C15" s="75">
         <f>ROUNDDOWN($C14/C4,0)</f>
@@ -9357,9 +9358,9 @@
       <c r="U15" s="14"/>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="134"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="47">
         <f t="shared" ref="C16:T16" si="6">C15*C8/1000</f>
@@ -9435,9 +9436,9 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="134"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="72" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="C17" s="92">
         <v>7500</v>
@@ -9456,9 +9457,9 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="134"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="66">
         <f t="shared" ref="C18:T18" si="8">$C17/(C7)</f>
@@ -9534,9 +9535,9 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="134"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="67">
         <f t="shared" ref="C19:T19" si="10">C18*C8/1000</f>
@@ -9612,9 +9613,9 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="134"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="72" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="C20" s="92">
         <v>90000</v>
@@ -9633,9 +9634,9 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="134"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="66">
         <f t="shared" ref="C21:T21" si="12">$C20/(C5*C4)</f>
@@ -9711,9 +9712,9 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="135"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="67">
         <f t="shared" ref="C22:T22" si="14">C8*C21/1000</f>
@@ -9790,11 +9791,11 @@
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="128" t="s">
-        <v>249</v>
+      <c r="A24" s="130" t="s">
+        <v>246</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C24" s="79">
         <f t="shared" ref="C24:T24" si="16">MAX(C21,C18,C15,C12)</f>
@@ -9870,9 +9871,9 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="129"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" s="64">
         <f>ROUND(C24,0)</f>
@@ -9948,9 +9949,9 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="129"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="39" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C26" s="63">
         <f t="shared" ref="C26:P26" si="20">IF(C25/C29&gt;C15,C15,C25/C29)</f>
@@ -10026,9 +10027,9 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="129"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="39" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C27" s="64">
         <f t="shared" ref="C27" si="23">ROUND(C26,0)</f>
@@ -10104,9 +10105,9 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="129"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C28" s="63">
         <f t="shared" ref="C28:T28" si="32">C24/C15</f>
@@ -10182,9 +10183,9 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="130"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="44" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C29" s="41">
         <f>ROUND(C28,0)</f>
@@ -10260,32 +10261,32 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="133" t="s">
-        <v>260</v>
+      <c r="A31" s="135" t="s">
+        <v>257</v>
       </c>
       <c r="B31" s="70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C31" s="75">
         <f t="shared" ref="C31:T31" si="36">C27*C4</f>
@@ -10361,9 +10362,9 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="134"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="74" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C32" s="64">
         <f t="shared" ref="C32:T32" si="38">C25*C7</f>
@@ -10439,9 +10440,9 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="134"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="74" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C33" s="64">
         <f>(C32*60^2)/10^6</f>
@@ -10517,9 +10518,9 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="135"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C34" s="77">
         <f t="shared" ref="C34:T34" si="42">(C25*C8)/1000</f>
@@ -10596,15 +10597,15 @@
     </row>
     <row r="36" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="133" t="s">
-        <v>272</v>
+      <c r="A37" s="135" t="s">
+        <v>269</v>
       </c>
       <c r="B37" s="70" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="134"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="95">
         <v>120</v>
       </c>
@@ -10682,7 +10683,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="134"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="96">
         <v>12</v>
       </c>
@@ -10760,7 +10761,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="134"/>
+      <c r="A40" s="136"/>
       <c r="B40" s="97">
         <v>6</v>
       </c>
@@ -10838,9 +10839,9 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="134"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="74" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C41" s="63">
         <f>MAX(C38:C40)</f>
@@ -10916,9 +10917,9 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="134"/>
+      <c r="A42" s="136"/>
       <c r="B42" s="71" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C42" s="41">
         <f>ROUNDUP(C41,0)</f>
@@ -10994,33 +10995,33 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="134"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="C43" s="136" t="s">
-        <v>274</v>
-      </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137"/>
-      <c r="P43" s="137"/>
-      <c r="Q43" s="137"/>
-      <c r="R43" s="137"/>
-      <c r="S43" s="137"/>
-      <c r="T43" s="137"/>
+        <v>254</v>
+      </c>
+      <c r="C43" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="139"/>
+      <c r="P43" s="139"/>
+      <c r="Q43" s="139"/>
+      <c r="R43" s="139"/>
+      <c r="S43" s="139"/>
+      <c r="T43" s="139"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="134"/>
+      <c r="A44" s="136"/>
       <c r="B44" s="93">
         <v>12</v>
       </c>
@@ -11098,9 +11099,9 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="134"/>
+      <c r="A45" s="136"/>
       <c r="B45" s="74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C45" s="63">
         <f>ROUND(C44,0)</f>
@@ -11176,9 +11177,9 @@
       </c>
     </row>
     <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="134"/>
+      <c r="A46" s="136"/>
       <c r="B46" s="71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C46" s="82">
         <f>ABS(C45-C44)</f>
@@ -11254,7 +11255,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="134"/>
+      <c r="A47" s="136"/>
       <c r="B47" s="93">
         <v>11</v>
       </c>
@@ -11332,9 +11333,9 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48" s="134"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C48" s="63">
         <f>ROUND(C47,0)</f>
@@ -11410,9 +11411,9 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="134"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C49" s="82">
         <f>ABS(C48-C47)</f>
@@ -11488,7 +11489,7 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="134"/>
+      <c r="A50" s="136"/>
       <c r="B50" s="94">
         <v>10</v>
       </c>
@@ -11566,9 +11567,9 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="134"/>
+      <c r="A51" s="136"/>
       <c r="B51" s="74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C51" s="63">
         <f>ROUND(C50,0)</f>
@@ -11644,9 +11645,9 @@
       </c>
     </row>
     <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="134"/>
+      <c r="A52" s="136"/>
       <c r="B52" s="74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C52" s="63">
         <f>ABS(C51-C50)</f>
@@ -11722,9 +11723,9 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A53" s="134"/>
+      <c r="A53" s="136"/>
       <c r="B53" s="70" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C53" s="88">
         <f t="shared" ref="C53:T53" si="115">IF($B$44-C45=1,11,IF(AND(C46&lt;C49,C49&lt;C52),$B$44,IF(C49&lt;C52,$B$47,$B$50)))</f>
@@ -11800,9 +11801,9 @@
       </c>
     </row>
     <row r="54" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="135"/>
+      <c r="A54" s="137"/>
       <c r="B54" s="71" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C54" s="85">
         <f t="shared" ref="C54:T54" si="117">IF(C53=$B$44,C45,IF(C53=$B$47,C48,C51))</f>
@@ -11879,11 +11880,11 @@
     </row>
     <row r="55" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="128" t="s">
-        <v>263</v>
+      <c r="A56" s="130" t="s">
+        <v>260</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C56" s="88" t="str">
         <f>C53*C54&amp;"S "&amp;C29&amp;"P"</f>
@@ -11959,9 +11960,9 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="129"/>
+      <c r="A57" s="131"/>
       <c r="B57" s="74" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C57">
         <f t="shared" ref="C57:T57" si="121">C53*C54*C4</f>
@@ -12037,9 +12038,9 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="129"/>
+      <c r="A58" s="131"/>
       <c r="B58" s="74" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C58">
         <f>C54*C53*C3</f>
@@ -12115,9 +12116,9 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="129"/>
+      <c r="A59" s="131"/>
       <c r="B59" s="74" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C59" s="63">
         <f>(C53*C54*C4*C6*C29)/1000</f>
@@ -12193,9 +12194,9 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="129"/>
+      <c r="A60" s="131"/>
       <c r="B60" s="74" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C60" s="63">
         <f t="shared" ref="C60:T60" si="127">(C53*C54*C4*C5*C29)/1000</f>
@@ -12271,9 +12272,9 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A61" s="129"/>
+      <c r="A61" s="131"/>
       <c r="B61" s="74" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C61">
         <f>C53*C54*C29</f>
@@ -12349,9 +12350,9 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62" s="129"/>
+      <c r="A62" s="131"/>
       <c r="B62" s="74" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C62" s="63">
         <f>(C61*C8)/1000</f>
@@ -12427,9 +12428,9 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="130"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C63" s="41">
         <f t="shared" ref="C63:T63" si="133">C29*C5</f>
@@ -12506,7 +12507,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B64" s="74" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C64" s="105">
         <f>C61*C9</f>
@@ -12785,8 +12786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6A1B8-F4EF-4AFD-8AAC-4A3A905C0D36}">
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="H15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12798,34 +12799,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
     </row>
     <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="131"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
+      <c r="B2" s="123" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="133"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
     </row>
     <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="39"/>
@@ -12844,8 +12845,8 @@
       <c r="G3" s="112">
         <v>30</v>
       </c>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
@@ -12969,16 +12970,16 @@
       <c r="G9" s="40">
         <v>7.7</v>
       </c>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
@@ -13041,20 +13042,16 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="148"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="121" t="s">
-        <v>271</v>
-      </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
+      <c r="B15" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
     </row>
     <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="39"/>
@@ -13200,17 +13197,11 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="147"/>
+      <c r="E26" s="121"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F37" s="87"/>
@@ -13237,7 +13228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K22" sqref="K22:L22"/>
     </sheetView>
   </sheetViews>
@@ -13252,22 +13243,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -13552,7 +13543,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -13566,7 +13557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B0FAF4-7609-4C6D-8793-9B22DEBCE599}">
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -13577,19 +13568,19 @@
       <c r="B2" s="38"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="127" t="s">
+      <c r="E2" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="131"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="133"/>
     </row>
     <row r="3" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="39"/>
@@ -13632,8 +13623,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="144" t="s">
-        <v>216</v>
+      <c r="B4" s="146" t="s">
+        <v>213</v>
       </c>
       <c r="C4" s="116">
         <v>0</v>
@@ -13676,7 +13667,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="145"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="117">
         <v>0.25</v>
       </c>
@@ -13719,7 +13710,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="145"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="117">
         <v>0.5</v>
       </c>
@@ -13762,7 +13753,7 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="145"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="117">
         <v>0.75</v>
       </c>
@@ -13805,7 +13796,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="145"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="117">
         <v>1</v>
       </c>
@@ -13848,7 +13839,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="145"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="117">
         <v>1.25</v>
       </c>
@@ -13891,7 +13882,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="145"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="117">
         <v>1.5</v>
       </c>
@@ -13934,7 +13925,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="145"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="117">
         <v>1.75</v>
       </c>
@@ -13977,7 +13968,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="145"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="117">
         <v>2</v>
       </c>
@@ -14020,7 +14011,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="145"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="117">
         <v>2.25</v>
       </c>
@@ -14063,7 +14054,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="145"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="117">
         <v>2.5</v>
       </c>
@@ -14106,7 +14097,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="145"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="117">
         <v>2.75</v>
       </c>
@@ -14149,7 +14140,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="146"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="118">
         <v>3</v>
       </c>
@@ -14195,52 +14186,52 @@
       <c r="N32" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="143" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" s="143"/>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
+      <c r="A51" s="145" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="145"/>
+      <c r="M51" s="145"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="143"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="143"/>
-      <c r="E52" s="143"/>
-      <c r="F52" s="143"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="143"/>
-      <c r="M52" s="143"/>
+      <c r="A52" s="145"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="145"/>
+      <c r="M52" s="145"/>
     </row>
     <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="142" t="s">
+      <c r="C54" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="127"/>
-      <c r="K54" s="127"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="131"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="133"/>
     </row>
     <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="9">
@@ -14282,7 +14273,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="142" t="s">
         <v>140</v>
       </c>
       <c r="B56" s="7">
@@ -14323,7 +14314,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="140"/>
+      <c r="A57" s="142"/>
       <c r="B57" s="7">
         <f t="shared" ref="B57:B68" si="1">B56+$B$55</f>
         <v>8.3333333333333329E-2</v>
@@ -14363,7 +14354,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="140"/>
+      <c r="A58" s="142"/>
       <c r="B58" s="7">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
@@ -14403,7 +14394,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="140"/>
+      <c r="A59" s="142"/>
       <c r="B59" s="7">
         <f t="shared" si="1"/>
         <v>0.25</v>
@@ -14443,7 +14434,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="140"/>
+      <c r="A60" s="142"/>
       <c r="B60" s="7">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
@@ -14483,7 +14474,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="140"/>
+      <c r="A61" s="142"/>
       <c r="B61" s="7">
         <f t="shared" si="1"/>
         <v>0.41666666666666663</v>
@@ -14523,7 +14514,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="140"/>
+      <c r="A62" s="142"/>
       <c r="B62" s="7">
         <f t="shared" si="1"/>
         <v>0.49999999999999994</v>
@@ -14563,7 +14554,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="140"/>
+      <c r="A63" s="142"/>
       <c r="B63" s="7">
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
@@ -14603,7 +14594,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="140"/>
+      <c r="A64" s="142"/>
       <c r="B64" s="7">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
@@ -14643,7 +14634,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="140"/>
+      <c r="A65" s="142"/>
       <c r="B65" s="7">
         <f t="shared" si="1"/>
         <v>0.75</v>
@@ -14683,7 +14674,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="140"/>
+      <c r="A66" s="142"/>
       <c r="B66" s="7">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
@@ -14723,7 +14714,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="141"/>
+      <c r="A67" s="143"/>
       <c r="B67" s="8">
         <f t="shared" si="1"/>
         <v>0.91666666666666674</v>

--- a/calc/Zellauswahl_Master.xlsx
+++ b/calc/Zellauswahl_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Privat\Git\Projektarbeit-Hochvolt-Elektrik-Komponenten-FSE-Fahrzeug\calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12D07FA-079E-4D2E-A37F-FDF3157D5642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE174AC-4A1B-42D9-A5B2-3E2373E80BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarking" sheetId="3" r:id="rId1"/>
@@ -6097,8 +6097,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6113,8 +6113,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11079480" y="137160"/>
-          <a:ext cx="1866900" cy="1120140"/>
+          <a:off x="11252835" y="137160"/>
+          <a:ext cx="1866900" cy="1210628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7220,8 +7220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78EDC70-6C3A-457F-94EA-893EC9102BD4}">
   <dimension ref="B1:R22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8574,7 +8574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E8032F-0997-4262-8E52-ED8039B70175}">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
@@ -12786,7 +12786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A6A1B8-F4EF-4AFD-8AAC-4A3A905C0D36}">
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="H15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="H20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
@@ -13228,7 +13228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K22" sqref="K22:L22"/>
     </sheetView>
   </sheetViews>
